--- a/Daisy-xls/ResearchPages/Spanish/research-skin-cancer - Spanish.xlsx
+++ b/Daisy-xls/ResearchPages/Spanish/research-skin-cancer - Spanish.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="16608" windowHeight="9432"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="16605" windowHeight="9435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <t>Instantánea del melanoma</t>
   </si>
   <si>
-    <t>http://www.cancer.gov/espanol/cancer/instantaneas/melanoma</t>
+    <t>www.cancer.gov/espanol/cancer/instantaneas/melanoma</t>
   </si>
 </sst>
 </file>
@@ -49,7 +49,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +72,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -119,22 +125,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -142,6 +136,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -452,49 +458,51 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="44.77734375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="3"/>
+    <col min="1" max="1" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="44.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>725784</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="10">
         <v>41948</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
   </sheetData>
   <sortState ref="A2:E7">
@@ -511,7 +519,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -523,7 +531,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
